--- a/data/trans_orig/P34A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B1AE420-A8D0-434B-AC47-93D155BB058D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA68F66-48ED-4918-9BD6-B8A477A26D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71EC105D-10B5-4D4C-8842-19907B4B4FFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9B2D80C-F5C0-4382-AD22-86A899F4BA23}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="434">
   <si>
     <t>Población que no realiza actividad física en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>46,82%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
   </si>
   <si>
     <t>31,0%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>39,0%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>53,18%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1228 +140,1207 @@
     <t>44,43%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
   </si>
   <si>
     <t>43,97%</t>
   </si>
   <si>
-    <t>41,13%</t>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que no realiza actividad física en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>Población que no realiza actividad física en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>46,89%</t>
   </si>
   <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
   </si>
   <si>
     <t>53,11%</t>
   </si>
   <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que no realiza actividad física en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>Población que no realiza actividad física en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
+    <t>73,02%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
   </si>
   <si>
     <t>29,07%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>26,12%</t>
   </si>
   <si>
     <t>40,04%</t>
   </si>
   <si>
-    <t>37,1%</t>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
   </si>
   <si>
     <t>35,03%</t>
   </si>
   <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>70,93%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
+    <t>73,88%</t>
   </si>
   <si>
     <t>59,96%</t>
   </si>
   <si>
-    <t>62,9%</t>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
   </si>
   <si>
     <t>64,97%</t>
   </si>
   <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>35,53%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
+    <t>64,47%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF28D9A4-EC5B-492D-BF9B-8BE2FD53B782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957E6186-2BD9-401F-9740-B4BA91B68440}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2213,7 +2192,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>415</v>
@@ -2222,13 +2201,13 @@
         <v>449352</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>779</v>
@@ -2237,13 +2216,13 @@
         <v>847336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2237,13 @@
         <v>547005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
@@ -2273,13 +2252,13 @@
         <v>502674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>996</v>
@@ -2288,13 +2267,13 @@
         <v>1049679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,7 +2329,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2362,13 +2341,13 @@
         <v>219106</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>264</v>
@@ -2377,13 +2356,13 @@
         <v>262281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>472</v>
@@ -2392,13 +2371,13 @@
         <v>481388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2392,13 @@
         <v>451130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
@@ -2428,13 +2407,13 @@
         <v>409030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>844</v>
@@ -2443,13 +2422,13 @@
         <v>860159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,7 +2484,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2517,13 +2496,13 @@
         <v>402240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>509</v>
@@ -2532,13 +2511,13 @@
         <v>535826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>925</v>
@@ -2547,13 +2526,13 @@
         <v>938065</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2547,13 @@
         <v>527568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>461</v>
@@ -2583,13 +2562,13 @@
         <v>475358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>1026</v>
@@ -2598,13 +2577,13 @@
         <v>1002927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2651,13 @@
         <v>1327127</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>1473</v>
@@ -2687,13 +2666,13 @@
         <v>1531062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>2764</v>
@@ -2702,13 +2681,13 @@
         <v>2858190</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2702,13 @@
         <v>1904436</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>1765</v>
@@ -2738,13 +2717,13 @@
         <v>1787697</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>3646</v>
@@ -2753,13 +2732,13 @@
         <v>3692132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,7 +2794,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AC5973-B27A-4DB6-BDF2-48DFE30F7C0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9303B3-AE14-4591-9B49-007FFD466399}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2853,7 +2832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2960,13 +2939,13 @@
         <v>28218</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -2975,13 +2954,13 @@
         <v>24387</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -2990,13 +2969,13 @@
         <v>52604</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +2990,13 @@
         <v>86686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -3026,13 +3005,13 @@
         <v>87518</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>169</v>
@@ -3041,13 +3020,13 @@
         <v>174205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3094,13 @@
         <v>134153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>154</v>
@@ -3130,13 +3109,13 @@
         <v>165095</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>280</v>
@@ -3145,13 +3124,13 @@
         <v>299248</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3145,13 @@
         <v>453551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>397</v>
@@ -3181,13 +3160,13 @@
         <v>420050</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>823</v>
@@ -3196,13 +3175,13 @@
         <v>873601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3249,13 @@
         <v>244775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>338</v>
@@ -3285,13 +3264,13 @@
         <v>373899</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>563</v>
@@ -3300,13 +3279,13 @@
         <v>618675</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3300,13 @@
         <v>773172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>602</v>
@@ -3336,13 +3315,13 @@
         <v>658285</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1313</v>
@@ -3351,13 +3330,13 @@
         <v>1431456</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,7 +3392,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3425,13 +3404,13 @@
         <v>157360</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -3440,13 +3419,13 @@
         <v>218752</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>348</v>
@@ -3455,13 +3434,13 @@
         <v>376112</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3455,13 @@
         <v>600263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>500</v>
@@ -3491,13 +3470,13 @@
         <v>557324</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1045</v>
@@ -3506,13 +3485,13 @@
         <v>1157588</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3547,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3580,13 +3559,13 @@
         <v>205223</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>307</v>
@@ -3595,13 +3574,13 @@
         <v>318696</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>500</v>
@@ -3610,13 +3589,13 @@
         <v>523919</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3610,13 @@
         <v>741619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>696</v>
@@ -3646,28 +3625,28 @@
         <v>733205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>1412</v>
       </c>
       <c r="N17" s="7">
-        <v>1474824</v>
+        <v>1474825</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,7 +3688,7 @@
         <v>1912</v>
       </c>
       <c r="N18" s="7">
-        <v>1998743</v>
+        <v>1998744</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3735,13 +3714,13 @@
         <v>769729</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>1026</v>
@@ -3750,13 +3729,13 @@
         <v>1100829</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>1742</v>
@@ -3765,13 +3744,13 @@
         <v>1870558</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3765,13 @@
         <v>2655292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>2271</v>
@@ -3801,13 +3780,13 @@
         <v>2456382</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>4762</v>
@@ -3816,13 +3795,13 @@
         <v>5111674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3857,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584A06DD-A705-43D0-BEDD-75FFAA8CC60A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87667E11-64CB-4A79-99A3-7C3370B010B0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3916,7 +3895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4023,13 +4002,13 @@
         <v>30259</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -4038,13 +4017,13 @@
         <v>43652</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -4053,13 +4032,13 @@
         <v>73911</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4053,13 @@
         <v>86287</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -4089,13 +4068,13 @@
         <v>69708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>155</v>
@@ -4104,13 +4083,13 @@
         <v>155995</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4157,13 @@
         <v>207939</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>255</v>
@@ -4193,13 +4172,13 @@
         <v>265807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>455</v>
@@ -4208,13 +4187,13 @@
         <v>473746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4208,13 @@
         <v>350315</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>296</v>
@@ -4244,13 +4223,13 @@
         <v>293672</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>635</v>
@@ -4259,13 +4238,13 @@
         <v>643987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4312,13 @@
         <v>359008</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>414</v>
@@ -4348,13 +4327,13 @@
         <v>448543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>753</v>
@@ -4363,13 +4342,13 @@
         <v>807552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4363,13 @@
         <v>663423</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>563</v>
@@ -4399,13 +4378,13 @@
         <v>594370</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1175</v>
@@ -4414,13 +4393,13 @@
         <v>1257792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4455,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4488,13 +4467,13 @@
         <v>252170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>285</v>
@@ -4503,13 +4482,13 @@
         <v>312067</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>519</v>
@@ -4518,13 +4497,13 @@
         <v>564236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,10 +4551,10 @@
         <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,7 +4610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4643,13 +4622,13 @@
         <v>298569</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>398</v>
@@ -4658,13 +4637,13 @@
         <v>444298</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>696</v>
@@ -4673,13 +4652,13 @@
         <v>742867</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4673,13 @@
         <v>638998</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>561</v>
@@ -4709,13 +4688,13 @@
         <v>599481</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>1195</v>
@@ -4724,13 +4703,13 @@
         <v>1238479</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4777,13 @@
         <v>1147944</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>1396</v>
@@ -4813,13 +4792,13 @@
         <v>1514368</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>2496</v>
@@ -4828,13 +4807,13 @@
         <v>2662312</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4828,13 @@
         <v>2246406</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>1942</v>
@@ -4864,13 +4843,13 @@
         <v>2030174</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>4073</v>
@@ -4879,13 +4858,13 @@
         <v>4276580</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4920,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E9A72F-9022-4B06-9713-DBD94DBF81BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC812F0-7EB2-4691-8A67-29E65F86F4A1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4979,7 +4958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,13 +5065,13 @@
         <v>33387</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -5101,13 +5080,13 @@
         <v>47938</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -5116,13 +5095,13 @@
         <v>81325</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5116,13 @@
         <v>65826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>154</v>
@@ -5152,13 +5131,13 @@
         <v>82795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>227</v>
@@ -5167,13 +5146,13 @@
         <v>148621</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5220,13 @@
         <v>211272</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7">
         <v>390</v>
@@ -5256,13 +5235,13 @@
         <v>226894</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>619</v>
@@ -5271,13 +5250,13 @@
         <v>438165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>363</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5271,13 @@
         <v>338551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>604</v>
@@ -5307,13 +5286,13 @@
         <v>365258</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>987</v>
@@ -5322,13 +5301,13 @@
         <v>703810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5375,13 @@
         <v>326511</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>581</v>
@@ -5411,13 +5390,13 @@
         <v>402004</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>914</v>
@@ -5426,13 +5405,13 @@
         <v>728516</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5426,13 @@
         <v>709916</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -5462,13 +5441,13 @@
         <v>656690</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
@@ -5477,13 +5456,13 @@
         <v>1366605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,7 +5518,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5551,13 +5530,13 @@
         <v>249990</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>477</v>
@@ -5566,13 +5545,13 @@
         <v>347713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>730</v>
@@ -5581,13 +5560,13 @@
         <v>597703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5581,13 @@
         <v>477662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>567</v>
@@ -5617,13 +5596,13 @@
         <v>523896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>989</v>
@@ -5632,13 +5611,13 @@
         <v>1001559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5673,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5706,13 +5685,13 @@
         <v>279715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>630</v>
@@ -5721,13 +5700,13 @@
         <v>458308</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>934</v>
@@ -5736,13 +5715,13 @@
         <v>738022</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5736,13 @@
         <v>682417</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>926</v>
@@ -5772,13 +5751,13 @@
         <v>686232</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>1625</v>
@@ -5787,13 +5766,13 @@
         <v>1368650</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5840,13 @@
         <v>1100874</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>2167</v>
@@ -5876,13 +5855,13 @@
         <v>1482857</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>3328</v>
@@ -5891,13 +5870,13 @@
         <v>2583731</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5891,13 @@
         <v>2274374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>3184</v>
@@ -5927,13 +5906,13 @@
         <v>2314871</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>5390</v>
@@ -5942,13 +5921,13 @@
         <v>4589245</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,7 +5983,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA68F66-48ED-4918-9BD6-B8A477A26D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{600070CF-6458-4135-B395-D3DBEBAD8DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9B2D80C-F5C0-4382-AD22-86A899F4BA23}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4E3317B3-76DE-4FE9-AF50-2189900CCD3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="363">
   <si>
     <t>Población que no realiza actividad física en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -68,273 +68,222 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
     <t>46,82%</t>
   </si>
   <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
   </si>
   <si>
     <t>53,18%</t>
   </si>
   <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
     <t>59,83%</t>
   </si>
   <si>
@@ -413,112 +362,58 @@
     <t>Población que no realiza actividad física en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
   </si>
   <si>
     <t>24,05%</t>
@@ -635,9 +530,6 @@
     <t>30,3%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
     <t>33,22%</t>
   </si>
   <si>
@@ -665,9 +557,6 @@
     <t>66,78%</t>
   </si>
   <si>
-    <t>72,26%</t>
-  </si>
-  <si>
     <t>73,79%</t>
   </si>
   <si>
@@ -734,112 +623,46 @@
     <t>Población que no realiza actividad física en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
   </si>
   <si>
     <t>35,11%</t>
@@ -1049,298 +872,262 @@
     <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>63,33%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
   </si>
   <si>
     <t>62,03%</t>
   </si>
   <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
   </si>
 </sst>
 </file>
@@ -1752,8 +1539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957E6186-2BD9-401F-9740-B4BA91B68440}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59451207-3F6B-4D4B-A60B-200AC297F944}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1870,10 +1657,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="D4" s="7">
-        <v>54016</v>
+        <v>307797</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1885,10 +1672,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="I4" s="7">
-        <v>34955</v>
+        <v>283604</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1900,10 +1687,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>88</v>
+        <v>588</v>
       </c>
       <c r="N4" s="7">
-        <v>88971</v>
+        <v>591400</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1921,10 +1708,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>56</v>
+        <v>373</v>
       </c>
       <c r="D5" s="7">
-        <v>61342</v>
+        <v>378733</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1936,10 +1723,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>89</v>
+        <v>407</v>
       </c>
       <c r="I5" s="7">
-        <v>77800</v>
+        <v>400634</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1951,10 +1738,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>145</v>
+        <v>780</v>
       </c>
       <c r="N5" s="7">
-        <v>139142</v>
+        <v>779368</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1972,10 +1759,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>676</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>686530</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1987,10 +1774,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>692</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>684238</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2002,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1368</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1370768</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2025,10 +1812,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>254</v>
+        <v>364</v>
       </c>
       <c r="D7" s="7">
-        <v>253781</v>
+        <v>397984</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2040,10 +1827,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>246</v>
+        <v>415</v>
       </c>
       <c r="I7" s="7">
-        <v>248649</v>
+        <v>449352</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2055,10 +1842,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>500</v>
+        <v>779</v>
       </c>
       <c r="N7" s="7">
-        <v>502430</v>
+        <v>847336</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2076,10 +1863,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>317</v>
+        <v>518</v>
       </c>
       <c r="D8" s="7">
-        <v>317391</v>
+        <v>547005</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2091,10 +1878,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>318</v>
+        <v>478</v>
       </c>
       <c r="I8" s="7">
-        <v>322834</v>
+        <v>502674</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2106,10 +1893,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>635</v>
+        <v>996</v>
       </c>
       <c r="N8" s="7">
-        <v>640226</v>
+        <v>1049679</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2127,10 +1914,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>571</v>
+        <v>882</v>
       </c>
       <c r="D9" s="7">
-        <v>571172</v>
+        <v>944989</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2142,10 +1929,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>564</v>
+        <v>893</v>
       </c>
       <c r="I9" s="7">
-        <v>571483</v>
+        <v>952026</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2157,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1135</v>
+        <v>1775</v>
       </c>
       <c r="N9" s="7">
-        <v>1142656</v>
+        <v>1897015</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2180,10 +1967,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>364</v>
+        <v>208</v>
       </c>
       <c r="D10" s="7">
-        <v>397984</v>
+        <v>219106</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2195,10 +1982,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>415</v>
+        <v>264</v>
       </c>
       <c r="I10" s="7">
-        <v>449352</v>
+        <v>262281</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2210,10 +1997,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>779</v>
+        <v>472</v>
       </c>
       <c r="N10" s="7">
-        <v>847336</v>
+        <v>481388</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2231,10 +2018,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>518</v>
+        <v>425</v>
       </c>
       <c r="D11" s="7">
-        <v>547005</v>
+        <v>451130</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2246,10 +2033,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="I11" s="7">
-        <v>502674</v>
+        <v>409030</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2261,10 +2048,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>996</v>
+        <v>844</v>
       </c>
       <c r="N11" s="7">
-        <v>1049679</v>
+        <v>860159</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2282,10 +2069,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>882</v>
+        <v>633</v>
       </c>
       <c r="D12" s="7">
-        <v>944989</v>
+        <v>670236</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2297,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>893</v>
+        <v>683</v>
       </c>
       <c r="I12" s="7">
-        <v>952026</v>
+        <v>671311</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2312,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1775</v>
+        <v>1316</v>
       </c>
       <c r="N12" s="7">
-        <v>1897015</v>
+        <v>1341547</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2335,10 +2122,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="D13" s="7">
-        <v>219106</v>
+        <v>402240</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2350,10 +2137,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>264</v>
+        <v>509</v>
       </c>
       <c r="I13" s="7">
-        <v>262281</v>
+        <v>535826</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2365,10 +2152,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>472</v>
+        <v>925</v>
       </c>
       <c r="N13" s="7">
-        <v>481388</v>
+        <v>938065</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2386,10 +2173,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>425</v>
+        <v>565</v>
       </c>
       <c r="D14" s="7">
-        <v>451130</v>
+        <v>527568</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2401,10 +2188,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="I14" s="7">
-        <v>409030</v>
+        <v>475358</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2413,22 +2200,22 @@
         <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1026</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1002927</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>844</v>
-      </c>
-      <c r="N14" s="7">
-        <v>860159</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,10 +2224,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>633</v>
+        <v>981</v>
       </c>
       <c r="D15" s="7">
-        <v>670236</v>
+        <v>929808</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2452,10 +2239,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>683</v>
+        <v>970</v>
       </c>
       <c r="I15" s="7">
-        <v>671311</v>
+        <v>1011184</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2467,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1316</v>
+        <v>1951</v>
       </c>
       <c r="N15" s="7">
-        <v>1341547</v>
+        <v>1940992</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2484,55 +2271,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>416</v>
+        <v>1291</v>
       </c>
       <c r="D16" s="7">
-        <v>402240</v>
+        <v>1327127</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1473</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1531062</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>509</v>
-      </c>
-      <c r="I16" s="7">
-        <v>535826</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2764</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2858190</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>925</v>
-      </c>
-      <c r="N16" s="7">
-        <v>938065</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,25 +2328,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>565</v>
+        <v>1881</v>
       </c>
       <c r="D17" s="7">
-        <v>527568</v>
+        <v>1904436</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>461</v>
+        <v>1765</v>
       </c>
       <c r="I17" s="7">
-        <v>475358</v>
+        <v>1787697</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -2568,22 +2355,22 @@
         <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>1026</v>
+        <v>3646</v>
       </c>
       <c r="N17" s="7">
-        <v>1002927</v>
+        <v>3692132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>981</v>
+        <v>3172</v>
       </c>
       <c r="D18" s="7">
-        <v>929808</v>
+        <v>3231563</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2607,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>970</v>
+        <v>3238</v>
       </c>
       <c r="I18" s="7">
-        <v>1011184</v>
+        <v>3318759</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2622,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1951</v>
+        <v>6410</v>
       </c>
       <c r="N18" s="7">
-        <v>1940992</v>
+        <v>6550322</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2638,171 +2425,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1291</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1327127</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1473</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1531062</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2764</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2858190</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1881</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1904436</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1765</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1787697</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3646</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3692132</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3172</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3231563</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3238</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3318759</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6410</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6550322</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2815,8 +2446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9303B3-AE14-4591-9B49-007FFD466399}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CC93C2-05F5-44CA-B387-6A71C66A52A8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2832,7 +2463,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2933,49 +2564,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="D4" s="7">
-        <v>28218</v>
+        <v>162371</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="I4" s="7">
-        <v>24387</v>
+        <v>189481</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
-        <v>51</v>
+        <v>331</v>
       </c>
       <c r="N4" s="7">
-        <v>52604</v>
+        <v>351853</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,49 +2615,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>93</v>
+        <v>519</v>
       </c>
       <c r="D5" s="7">
-        <v>86686</v>
+        <v>540237</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="I5" s="7">
-        <v>87518</v>
+        <v>507569</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
-        <v>169</v>
+        <v>992</v>
       </c>
       <c r="N5" s="7">
-        <v>174205</v>
+        <v>1047805</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,10 +2666,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="D6" s="7">
-        <v>114904</v>
+        <v>702608</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3050,10 +2681,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3065,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1323</v>
       </c>
       <c r="N6" s="7">
-        <v>226809</v>
+        <v>1399658</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3088,49 +2719,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>225</v>
+      </c>
+      <c r="D7" s="7">
+        <v>244775</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="7">
-        <v>134153</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="I7" s="7">
-        <v>165095</v>
+        <v>373899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
-        <v>280</v>
+        <v>563</v>
       </c>
       <c r="N7" s="7">
-        <v>299248</v>
+        <v>618675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,49 +2770,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>426</v>
+        <v>711</v>
       </c>
       <c r="D8" s="7">
-        <v>453551</v>
+        <v>773172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
-        <v>397</v>
+        <v>602</v>
       </c>
       <c r="I8" s="7">
-        <v>420050</v>
+        <v>658285</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
-        <v>823</v>
+        <v>1313</v>
       </c>
       <c r="N8" s="7">
-        <v>873601</v>
+        <v>1431456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,10 +2821,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3205,10 +2836,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3220,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3243,49 +2874,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="D10" s="7">
-        <v>244775</v>
+        <v>157360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
-        <v>338</v>
+        <v>204</v>
       </c>
       <c r="I10" s="7">
-        <v>373899</v>
+        <v>218752</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>563</v>
+        <v>348</v>
       </c>
       <c r="N10" s="7">
-        <v>618675</v>
+        <v>376112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,49 +2925,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>711</v>
+        <v>545</v>
       </c>
       <c r="D11" s="7">
-        <v>773172</v>
+        <v>600263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>602</v>
+        <v>500</v>
       </c>
       <c r="I11" s="7">
-        <v>658285</v>
+        <v>557324</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>1313</v>
+        <v>1045</v>
       </c>
       <c r="N11" s="7">
-        <v>1431456</v>
+        <v>1157588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3360,10 +2991,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>776076</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3375,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1533700</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3398,49 +3029,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="D13" s="7">
-        <v>157360</v>
+        <v>205223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="I13" s="7">
-        <v>218752</v>
+        <v>318696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>348</v>
+        <v>500</v>
       </c>
       <c r="N13" s="7">
-        <v>376112</v>
+        <v>523919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,49 +3080,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>545</v>
+        <v>716</v>
       </c>
       <c r="D14" s="7">
-        <v>600263</v>
+        <v>741619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>500</v>
+        <v>696</v>
       </c>
       <c r="I14" s="7">
-        <v>557324</v>
+        <v>733205</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="M14" s="7">
-        <v>1045</v>
+        <v>1412</v>
       </c>
       <c r="N14" s="7">
-        <v>1157588</v>
+        <v>1474824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,10 +3131,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>909</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>946842</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3515,10 +3146,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>776076</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3530,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1533700</v>
+        <v>1998743</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3547,55 +3178,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>193</v>
+        <v>716</v>
       </c>
       <c r="D16" s="7">
-        <v>205223</v>
+        <v>769729</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
-        <v>307</v>
+        <v>1026</v>
       </c>
       <c r="I16" s="7">
-        <v>318696</v>
+        <v>1100829</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>500</v>
+        <v>1742</v>
       </c>
       <c r="N16" s="7">
-        <v>523919</v>
+        <v>1870558</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,49 +3235,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>716</v>
+        <v>2491</v>
       </c>
       <c r="D17" s="7">
-        <v>741619</v>
+        <v>2655292</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>696</v>
+        <v>2271</v>
       </c>
       <c r="I17" s="7">
-        <v>733205</v>
+        <v>2456382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
-        <v>1412</v>
+        <v>4762</v>
       </c>
       <c r="N17" s="7">
-        <v>1474825</v>
+        <v>5111674</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,10 +3286,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>909</v>
+        <v>3207</v>
       </c>
       <c r="D18" s="7">
-        <v>946842</v>
+        <v>3425021</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3670,10 +3301,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3557211</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3685,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1998744</v>
+        <v>6982232</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3701,171 +3332,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>716</v>
-      </c>
-      <c r="D19" s="7">
-        <v>769729</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1026</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1100829</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1742</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1870558</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2491</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2655292</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2271</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2456382</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4762</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5111674</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3207</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3425021</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3557211</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6982232</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3878,8 +3353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87667E11-64CB-4A79-99A3-7C3370B010B0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026320FE-C19F-4FAA-BBC3-CAD3B47FB5C1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3895,7 +3370,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3996,49 +3471,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="D4" s="7">
-        <v>30259</v>
+        <v>238197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="I4" s="7">
-        <v>43652</v>
+        <v>309459</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="M4" s="7">
-        <v>73</v>
+        <v>528</v>
       </c>
       <c r="N4" s="7">
-        <v>73911</v>
+        <v>547657</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,49 +3522,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>84</v>
+        <v>423</v>
       </c>
       <c r="D5" s="7">
-        <v>86287</v>
+        <v>436603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="I5" s="7">
-        <v>69708</v>
+        <v>363380</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
-        <v>155</v>
+        <v>790</v>
       </c>
       <c r="N5" s="7">
-        <v>155995</v>
+        <v>799982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,10 +3573,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4113,10 +3588,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4128,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4151,49 +3626,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="D7" s="7">
-        <v>207939</v>
+        <v>359008</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
-        <v>255</v>
+        <v>414</v>
       </c>
       <c r="I7" s="7">
-        <v>265807</v>
+        <v>448543</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
-        <v>455</v>
+        <v>753</v>
       </c>
       <c r="N7" s="7">
-        <v>473746</v>
+        <v>807552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,49 +3677,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>339</v>
+        <v>612</v>
       </c>
       <c r="D8" s="7">
-        <v>350315</v>
+        <v>663423</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>296</v>
+        <v>563</v>
       </c>
       <c r="I8" s="7">
-        <v>293672</v>
+        <v>594370</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
-        <v>635</v>
+        <v>1175</v>
       </c>
       <c r="N8" s="7">
-        <v>643987</v>
+        <v>1257792</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,10 +3728,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4268,10 +3743,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4283,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4306,49 +3781,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="D10" s="7">
-        <v>359008</v>
+        <v>252170</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
-        <v>414</v>
+        <v>285</v>
       </c>
       <c r="I10" s="7">
-        <v>448543</v>
+        <v>312067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
-        <v>753</v>
+        <v>519</v>
       </c>
       <c r="N10" s="7">
-        <v>807552</v>
+        <v>564236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,49 +3832,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>462</v>
       </c>
       <c r="D11" s="7">
-        <v>663423</v>
+        <v>507382</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>563</v>
+        <v>451</v>
       </c>
       <c r="I11" s="7">
-        <v>594370</v>
+        <v>472944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>1175</v>
+        <v>913</v>
       </c>
       <c r="N11" s="7">
-        <v>1257792</v>
+        <v>980327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,10 +3883,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4423,10 +3898,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4438,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4461,49 +3936,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="D13" s="7">
-        <v>252170</v>
+        <v>298569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="I13" s="7">
-        <v>312067</v>
+        <v>444298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
-        <v>519</v>
+        <v>696</v>
       </c>
       <c r="N13" s="7">
-        <v>564236</v>
+        <v>742867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,49 +3987,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>462</v>
+        <v>634</v>
       </c>
       <c r="D14" s="7">
-        <v>507382</v>
+        <v>638998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
-        <v>451</v>
+        <v>561</v>
       </c>
       <c r="I14" s="7">
-        <v>472944</v>
+        <v>599481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
-        <v>913</v>
+        <v>1195</v>
       </c>
       <c r="N14" s="7">
-        <v>980327</v>
+        <v>1238479</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,10 +4038,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4578,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4593,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4610,55 +4085,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>298</v>
+        <v>1100</v>
       </c>
       <c r="D16" s="7">
-        <v>298569</v>
+        <v>1147944</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
-        <v>398</v>
+        <v>1396</v>
       </c>
       <c r="I16" s="7">
-        <v>444298</v>
+        <v>1514368</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
-        <v>696</v>
+        <v>2496</v>
       </c>
       <c r="N16" s="7">
-        <v>742867</v>
+        <v>2662312</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,49 +4142,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>634</v>
+        <v>2131</v>
       </c>
       <c r="D17" s="7">
-        <v>638998</v>
+        <v>2246406</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
-        <v>561</v>
+        <v>1942</v>
       </c>
       <c r="I17" s="7">
-        <v>599481</v>
+        <v>2030174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>1195</v>
+        <v>4073</v>
       </c>
       <c r="N17" s="7">
-        <v>1238479</v>
+        <v>4276580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,10 +4193,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4733,10 +4208,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4748,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4764,171 +4239,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1100</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1147944</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1396</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1514368</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2496</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2662312</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2131</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2246406</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1942</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2030174</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4073</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4276580</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4941,8 +4260,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC812F0-7EB2-4691-8A67-29E65F86F4A1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB22A2DC-94A4-4DDB-8D81-2D5AA347E8BB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4958,7 +4277,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5059,49 +4378,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="D4" s="7">
-        <v>33387</v>
+        <v>243944</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
-        <v>89</v>
+        <v>479</v>
       </c>
       <c r="I4" s="7">
-        <v>47938</v>
+        <v>258789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
-        <v>131</v>
+        <v>750</v>
       </c>
       <c r="N4" s="7">
-        <v>81325</v>
+        <v>502734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,49 +4429,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>73</v>
+        <v>456</v>
       </c>
       <c r="D5" s="7">
-        <v>65826</v>
+        <v>388949</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
-        <v>154</v>
+        <v>758</v>
       </c>
       <c r="I5" s="7">
-        <v>82795</v>
+        <v>416204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
-        <v>227</v>
+        <v>1214</v>
       </c>
       <c r="N5" s="7">
-        <v>148621</v>
+        <v>805152</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,10 +4480,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>727</v>
       </c>
       <c r="D6" s="7">
-        <v>99213</v>
+        <v>632893</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5176,10 +4495,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674993</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5191,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>358</v>
+        <v>1964</v>
       </c>
       <c r="N6" s="7">
-        <v>229946</v>
+        <v>1307886</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5214,49 +4533,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="D7" s="7">
-        <v>211272</v>
+        <v>313592</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
-        <v>390</v>
+        <v>581</v>
       </c>
       <c r="I7" s="7">
-        <v>226894</v>
+        <v>368422</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
-        <v>619</v>
+        <v>914</v>
       </c>
       <c r="N7" s="7">
-        <v>438165</v>
+        <v>682014</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,49 +4584,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>383</v>
+        <v>629</v>
       </c>
       <c r="D8" s="7">
-        <v>338551</v>
+        <v>876591</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
-        <v>604</v>
+        <v>933</v>
       </c>
       <c r="I8" s="7">
-        <v>365258</v>
+        <v>588944</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
-        <v>987</v>
+        <v>1562</v>
       </c>
       <c r="N8" s="7">
-        <v>703810</v>
+        <v>1465535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,10 +4635,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>962</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1190183</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5331,10 +4650,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>592152</v>
+        <v>957366</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5346,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2476</v>
       </c>
       <c r="N9" s="7">
-        <v>1141975</v>
+        <v>2147549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5369,49 +4688,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="D10" s="7">
-        <v>326511</v>
+        <v>239711</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
-        <v>581</v>
+        <v>477</v>
       </c>
       <c r="I10" s="7">
-        <v>402004</v>
+        <v>347823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
-        <v>914</v>
+        <v>730</v>
       </c>
       <c r="N10" s="7">
-        <v>728516</v>
+        <v>587534</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,49 +4739,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>629</v>
+        <v>422</v>
       </c>
       <c r="D11" s="7">
-        <v>709916</v>
+        <v>463920</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7">
-        <v>933</v>
+        <v>567</v>
       </c>
       <c r="I11" s="7">
-        <v>656690</v>
+        <v>583230</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
-        <v>1562</v>
+        <v>989</v>
       </c>
       <c r="N11" s="7">
-        <v>1366605</v>
+        <v>1047149</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,10 +4790,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>962</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1036427</v>
+        <v>703631</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5486,10 +4805,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1058694</v>
+        <v>931053</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5501,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2476</v>
+        <v>1719</v>
       </c>
       <c r="N12" s="7">
-        <v>2095121</v>
+        <v>1634683</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5524,49 +4843,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="D13" s="7">
-        <v>249990</v>
+        <v>268855</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="H13" s="7">
-        <v>477</v>
+        <v>630</v>
       </c>
       <c r="I13" s="7">
-        <v>347713</v>
+        <v>411977</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
-        <v>730</v>
+        <v>934</v>
       </c>
       <c r="N13" s="7">
-        <v>597703</v>
+        <v>680832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,49 +4894,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>422</v>
+        <v>699</v>
       </c>
       <c r="D14" s="7">
-        <v>477662</v>
+        <v>654985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
-        <v>567</v>
+        <v>926</v>
       </c>
       <c r="I14" s="7">
-        <v>523896</v>
+        <v>677859</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
-        <v>989</v>
+        <v>1625</v>
       </c>
       <c r="N14" s="7">
-        <v>1001559</v>
+        <v>1332844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,10 +4945,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1003</v>
       </c>
       <c r="D15" s="7">
-        <v>727652</v>
+        <v>923840</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5641,10 +4960,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1556</v>
       </c>
       <c r="I15" s="7">
-        <v>871609</v>
+        <v>1089836</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5656,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1719</v>
+        <v>2559</v>
       </c>
       <c r="N15" s="7">
-        <v>1599262</v>
+        <v>2013676</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5673,55 +4992,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>304</v>
+        <v>1161</v>
       </c>
       <c r="D16" s="7">
-        <v>279715</v>
+        <v>1066102</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>403</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
-        <v>630</v>
+        <v>2167</v>
       </c>
       <c r="I16" s="7">
-        <v>458308</v>
+        <v>1387012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
-        <v>934</v>
+        <v>3328</v>
       </c>
       <c r="N16" s="7">
-        <v>738022</v>
+        <v>2453114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,49 +5049,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>699</v>
+        <v>2206</v>
       </c>
       <c r="D17" s="7">
-        <v>682417</v>
+        <v>2384444</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
-        <v>926</v>
+        <v>3184</v>
       </c>
       <c r="I17" s="7">
-        <v>686232</v>
+        <v>2266236</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
-        <v>1625</v>
+        <v>5390</v>
       </c>
       <c r="N17" s="7">
-        <v>1368650</v>
+        <v>4650680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,10 +5100,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1003</v>
+        <v>3367</v>
       </c>
       <c r="D18" s="7">
-        <v>962132</v>
+        <v>3450546</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5796,10 +5115,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1556</v>
+        <v>5351</v>
       </c>
       <c r="I18" s="7">
-        <v>1144540</v>
+        <v>3653248</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5811,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2559</v>
+        <v>8718</v>
       </c>
       <c r="N18" s="7">
-        <v>2106672</v>
+        <v>7103794</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5827,171 +5146,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1161</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1100874</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2167</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1482857</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3328</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2583731</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2206</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2274374</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3184</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2314871</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5390</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4589245</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3367</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3375248</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5351</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3797728</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8718</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7172976</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
